--- a/docs/CareConnect-Encounter-1.xlsx
+++ b/docs/CareConnect-Encounter-1.xlsx
@@ -217,8 +217,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element.   This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -334,7 +333,7 @@
     <t>encounterTransport</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-EncounterTransport-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-EncounterTransport-1}
 </t>
   </si>
   <si>
@@ -355,7 +354,7 @@
     <t>outcomeOfAttendance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-OutcomeOfAttendance-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-OutcomeOfAttendance-1}
 </t>
   </si>
   <si>
@@ -365,7 +364,7 @@
     <t>emergencyCareDischargeStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-EmergencyCareDischargeStatus-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-EmergencyCareDischargeStatus-1}
 </t>
   </si>
   <si>
@@ -490,8 +489,7 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
-Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
@@ -582,7 +580,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1)
 </t>
   </si>
   <si>
@@ -613,8 +611,7 @@
     <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
   </si>
   <si>
-    <t>Note that internal business rules will detemine the appropraite transitions that may occur between statuses (and also classes).
-This element is labeled as a modifier because the status contains codes that mark the encounter as not currently valid.</t>
+    <t>Note that internal business rules will detemine the appropraite transitions that may occur between statuses (and also classes).  This element is labeled as a modifier because the status contains codes that mark the encounter as not currently valid.</t>
   </si>
   <si>
     <t>Current state of the encounter</t>
@@ -714,8 +711,7 @@
     <t>List of past encounter classes</t>
   </si>
   <si>
-    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.
-This would be used for a case where an admission starts of as an emergency encounter, then transisions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kindof discharge from emergency to inpatient.</t>
+    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.  This would be used for a case where an admission starts of as an emergency encounter, then transisions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kindof discharge from emergency to inpatient.</t>
   </si>
   <si>
     <t>Encounter.classHistory.id</t>
@@ -806,7 +802,7 @@
     <t>A code from the SNOMED Clinical Terminology UK coding system that describes an encounter between a care professional and the patient (or patient's record).</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-EncounterType-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-EncounterType-1</t>
   </si>
   <si>
     <t>Encounter.type.coding.id</t>
@@ -818,7 +814,7 @@
     <t>snomedCTDescriptionID</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-coding-sctdescid}
 </t>
   </si>
   <si>
@@ -998,7 +994,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1)
+    <t xml:space="preserve">Reference(Group|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1)
 </t>
   </si>
   <si>
@@ -1118,7 +1114,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(RelatedPerson|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1)
+    <t xml:space="preserve">Reference(RelatedPerson|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1)
 </t>
   </si>
   <si>
@@ -1294,7 +1290,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Procedure-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Condition-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Procedure-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Condition-1)
 </t>
   </si>
   <si>
@@ -1369,9 +1365,7 @@
     <t>Details about the admission to a healthcare service.</t>
   </si>
   <si>
-    <t>An Encounter may cover more than just the inpatient stay. Contexts such as outpatients, community clinics, and aged care facilities are also included.--The duration recorded in the period of this encounter covers the entire scope of this hospitalization record.</t>
+    <t>An Encounter may cover more than just the inpatient stay. Contexts such as outpatients, community clinics, and aged care facilities are also included.  The duration recorded in the period of this encounter covers the entire scope of this hospitalization record.</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ENC, moodCode=EVN]</t>
@@ -1386,7 +1380,7 @@
     <t>admissionMethod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-AdmissionMethod-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-AdmissionMethod-1}
 </t>
   </si>
   <si>
@@ -1396,7 +1390,7 @@
     <t>dischargeMethod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-DischargeMethod-1}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-CareConnect-DischargeMethod-1}
 </t>
   </si>
   <si>
@@ -1445,7 +1439,7 @@
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Location-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Location-1)
 </t>
   </si>
   <si>
@@ -1470,7 +1464,7 @@
     <t>The source of admission to a Hospital Provider Spell or a Nursing Episode when the Patient is in a Hospital Site or a Care Home.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-SourceOfAdmission-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-SourceOfAdmission-1</t>
   </si>
   <si>
     <t>.admissionReferralSourceCode</t>
@@ -1620,7 +1614,7 @@
     <t>The destination of a Patient on completion of a Hospital Provider Spell, or a note that the Patient died or was a still birth.</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-DischargeDestination-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-DischargeDestination-1</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -1716,7 +1710,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Encounter-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Encounter-1)
 </t>
   </si>
   <si>
@@ -1726,9 +1720,7 @@
     <t>Another Encounter of which this encounter is a part of (administratively or in time).</t>
   </si>
   <si>
-    <t>This is also used for associating a child's encounter back to the mother's encounter.--Refer to the Notes section in the Patient resource for further details.</t>
+    <t>This is also used for associating a child's encounter back to the mother's encounter.  Refer to the Notes section in the Patient resource for further details.</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=COMP, moodCode=EVN]</t>
@@ -1913,7 +1905,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="143.5625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.71875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.5546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
